--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Java星球项目\lingxi-BI\Lingxi-BI\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19120B31-7573-4801-B2DD-9D3261CFB7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC8D595-FFD6-4C97-965C-F4463C4897E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="924" windowWidth="17280" windowHeight="8964" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,126 @@
   <si>
     <r>
       <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
     </r>
     <r>
       <rPr>
@@ -459,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8" x14ac:dyDescent="0.4"/>
@@ -499,6 +619,70 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Java星球项目\lingxi-BI\Lingxi-BI\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\planet_projects\Lingxi-BI-main\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC8D595-FFD6-4C97-965C-F4463C4897E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0204BE64-319A-4DAB-B4A0-296E88556F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,6 +24,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,165 +36,192 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
   </si>
   <si>
     <t>2号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>3</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>4</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>5</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>6</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>7</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>8</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>9</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>10</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>11</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -207,14 +233,6 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -226,14 +244,18 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -262,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -325,7 +347,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -358,26 +380,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -410,23 +415,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -569,20 +557,15 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8" x14ac:dyDescent="0.4"/>
@@ -624,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -684,7 +667,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>